--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.06846584426965</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H2">
-        <v>3.06846584426965</v>
+        <v>9.879875</v>
       </c>
       <c r="I2">
-        <v>0.1729775162446332</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J2">
-        <v>0.1729775162446332</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.209109480724588</v>
+        <v>0.256997</v>
       </c>
       <c r="N2">
-        <v>0.209109480724588</v>
+        <v>0.770991</v>
       </c>
       <c r="O2">
-        <v>0.08342551002880867</v>
+        <v>0.09332919661870788</v>
       </c>
       <c r="P2">
-        <v>0.08342551002880867</v>
+        <v>0.09598223150213447</v>
       </c>
       <c r="Q2">
-        <v>0.6416452993163609</v>
+        <v>0.8463660784583332</v>
       </c>
       <c r="R2">
-        <v>0.6416452993163609</v>
+        <v>7.617294706125</v>
       </c>
       <c r="S2">
-        <v>0.01443073751622506</v>
+        <v>0.01508061323069258</v>
       </c>
       <c r="T2">
-        <v>0.01443073751622506</v>
+        <v>0.01603291349289465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.06846584426965</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H3">
-        <v>3.06846584426965</v>
+        <v>9.879875</v>
       </c>
       <c r="I3">
-        <v>0.1729775162446332</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J3">
-        <v>0.1729775162446332</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.07652103195565</v>
+        <v>2.259175</v>
       </c>
       <c r="N3">
-        <v>2.07652103195565</v>
+        <v>6.777525</v>
       </c>
       <c r="O3">
-        <v>0.8284408032393844</v>
+        <v>0.8204258717847656</v>
       </c>
       <c r="P3">
-        <v>0.8284408032393844</v>
+        <v>0.8437478174991718</v>
       </c>
       <c r="Q3">
-        <v>6.371733861463479</v>
+        <v>7.440122201041667</v>
       </c>
       <c r="R3">
-        <v>6.371733861463479</v>
+        <v>66.961099809375</v>
       </c>
       <c r="S3">
-        <v>0.1433016325000576</v>
+        <v>0.132568646308906</v>
       </c>
       <c r="T3">
-        <v>0.1433016325000576</v>
+        <v>0.1409400006237827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.06846584426965</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H4">
-        <v>3.06846584426965</v>
+        <v>9.879875</v>
       </c>
       <c r="I4">
-        <v>0.1729775162446332</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J4">
-        <v>0.1729775162446332</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.220910719760269</v>
+        <v>0.009148333333333333</v>
       </c>
       <c r="N4">
-        <v>0.220910719760269</v>
+        <v>0.027445</v>
       </c>
       <c r="O4">
-        <v>0.08813368673180696</v>
+        <v>0.003322243451869656</v>
       </c>
       <c r="P4">
-        <v>0.08813368673180696</v>
+        <v>0.00341668364945386</v>
       </c>
       <c r="Q4">
-        <v>0.6778569982174099</v>
+        <v>0.03012812993055556</v>
       </c>
       <c r="R4">
-        <v>0.6778569982174099</v>
+        <v>0.271153169375</v>
       </c>
       <c r="S4">
-        <v>0.01524514622835055</v>
+        <v>0.0005368252419501109</v>
       </c>
       <c r="T4">
-        <v>0.01524514622835055</v>
+        <v>0.0005707243156048435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.71363574297418</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H5">
-        <v>2.71363574297418</v>
+        <v>9.879875</v>
       </c>
       <c r="I5">
-        <v>0.1529748071626519</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J5">
-        <v>0.1529748071626519</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.209109480724588</v>
+        <v>0.228341</v>
       </c>
       <c r="N5">
-        <v>0.209109480724588</v>
+        <v>0.456682</v>
       </c>
       <c r="O5">
-        <v>0.08342551002880867</v>
+        <v>0.08292268814465686</v>
       </c>
       <c r="P5">
-        <v>0.08342551002880867</v>
+        <v>0.05685326734923985</v>
       </c>
       <c r="Q5">
-        <v>0.5674469610890123</v>
+        <v>0.7519935124583333</v>
       </c>
       <c r="R5">
-        <v>0.5674469610890123</v>
+        <v>4.51196107475</v>
       </c>
       <c r="S5">
-        <v>0.01276200130910288</v>
+        <v>0.01339907588691532</v>
       </c>
       <c r="T5">
-        <v>0.01276200130910288</v>
+        <v>0.00949679438509933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.71363574297418</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H6">
-        <v>2.71363574297418</v>
+        <v>8.517274</v>
       </c>
       <c r="I6">
-        <v>0.1529748071626519</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J6">
-        <v>0.1529748071626519</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.07652103195565</v>
+        <v>0.256997</v>
       </c>
       <c r="N6">
-        <v>2.07652103195565</v>
+        <v>0.770991</v>
       </c>
       <c r="O6">
-        <v>0.8284408032393844</v>
+        <v>0.09332919661870788</v>
       </c>
       <c r="P6">
-        <v>0.8284408032393844</v>
+        <v>0.09598223150213447</v>
       </c>
       <c r="Q6">
-        <v>5.634921693352481</v>
+        <v>0.7296379553926666</v>
       </c>
       <c r="R6">
-        <v>5.634921693352481</v>
+        <v>6.566741598534001</v>
       </c>
       <c r="S6">
-        <v>0.1267305721212172</v>
+        <v>0.01300074292173069</v>
       </c>
       <c r="T6">
-        <v>0.1267305721212172</v>
+        <v>0.01382170495449394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,122 +841,122 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.71363574297418</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H7">
-        <v>2.71363574297418</v>
+        <v>8.517274</v>
       </c>
       <c r="I7">
-        <v>0.1529748071626519</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J7">
-        <v>0.1529748071626519</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.220910719760269</v>
+        <v>2.259175</v>
       </c>
       <c r="N7">
-        <v>0.220910719760269</v>
+        <v>6.777525</v>
       </c>
       <c r="O7">
-        <v>0.08813368673180696</v>
+        <v>0.8204258717847656</v>
       </c>
       <c r="P7">
-        <v>0.08813368673180696</v>
+        <v>0.8437478174991718</v>
       </c>
       <c r="Q7">
-        <v>0.5994712251476184</v>
+        <v>6.414004162983334</v>
       </c>
       <c r="R7">
-        <v>0.5994712251476184</v>
+        <v>57.72603746685</v>
       </c>
       <c r="S7">
-        <v>0.01348223373233174</v>
+        <v>0.1142851993999966</v>
       </c>
       <c r="T7">
-        <v>0.01348223373233174</v>
+        <v>0.1215020030995259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.82161747845484</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H8">
-        <v>4.82161747845484</v>
+        <v>8.517274</v>
       </c>
       <c r="I8">
-        <v>0.2718072998147854</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J8">
-        <v>0.2718072998147854</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.209109480724588</v>
+        <v>0.009148333333333333</v>
       </c>
       <c r="N8">
-        <v>0.209109480724588</v>
+        <v>0.027445</v>
       </c>
       <c r="O8">
-        <v>0.08342551002880867</v>
+        <v>0.003322243451869656</v>
       </c>
       <c r="P8">
-        <v>0.08342551002880867</v>
+        <v>0.00341668364945386</v>
       </c>
       <c r="Q8">
-        <v>1.008245927172289</v>
+        <v>0.02597295388111111</v>
       </c>
       <c r="R8">
-        <v>1.008245927172289</v>
+        <v>0.23375658493</v>
       </c>
       <c r="S8">
-        <v>0.02267566261660178</v>
+        <v>0.0004627880085330421</v>
       </c>
       <c r="T8">
-        <v>0.02267566261660178</v>
+        <v>0.0004920118295493544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.82161747845484</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H9">
-        <v>4.82161747845484</v>
+        <v>8.517274</v>
       </c>
       <c r="I9">
-        <v>0.2718072998147854</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J9">
-        <v>0.2718072998147854</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.07652103195565</v>
+        <v>0.228341</v>
       </c>
       <c r="N9">
-        <v>2.07652103195565</v>
+        <v>0.456682</v>
       </c>
       <c r="O9">
-        <v>0.8284408032393844</v>
+        <v>0.08292268814465686</v>
       </c>
       <c r="P9">
-        <v>0.8284408032393844</v>
+        <v>0.05685326734923985</v>
       </c>
       <c r="Q9">
-        <v>10.01219010205644</v>
+        <v>0.6482809541446668</v>
       </c>
       <c r="R9">
-        <v>10.01219010205644</v>
+        <v>3.889685724868</v>
       </c>
       <c r="S9">
-        <v>0.225176257784889</v>
+        <v>0.01155111787099035</v>
       </c>
       <c r="T9">
-        <v>0.225176257784889</v>
+        <v>0.008187026647559055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.82161747845484</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H10">
-        <v>4.82161747845484</v>
+        <v>19.459838</v>
       </c>
       <c r="I10">
-        <v>0.2718072998147854</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J10">
-        <v>0.2718072998147854</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.220910719760269</v>
+        <v>0.256997</v>
       </c>
       <c r="N10">
-        <v>0.220910719760269</v>
+        <v>0.770991</v>
       </c>
       <c r="O10">
-        <v>0.08813368673180696</v>
+        <v>0.09332919661870788</v>
       </c>
       <c r="P10">
-        <v>0.08813368673180696</v>
+        <v>0.09598223150213447</v>
       </c>
       <c r="Q10">
-        <v>1.065146987574152</v>
+        <v>1.667039995495333</v>
       </c>
       <c r="R10">
-        <v>1.065146987574152</v>
+        <v>15.003359959458</v>
       </c>
       <c r="S10">
-        <v>0.02395537941329463</v>
+        <v>0.02970344163361726</v>
       </c>
       <c r="T10">
-        <v>0.02395537941329463</v>
+        <v>0.03157913427444619</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.19328185046771</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H11">
-        <v>5.19328185046771</v>
+        <v>19.459838</v>
       </c>
       <c r="I11">
-        <v>0.2927590011568317</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J11">
-        <v>0.2927590011568317</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.209109480724588</v>
+        <v>2.259175</v>
       </c>
       <c r="N11">
-        <v>0.209109480724588</v>
+        <v>6.777525</v>
       </c>
       <c r="O11">
-        <v>0.08342551002880867</v>
+        <v>0.8204258717847656</v>
       </c>
       <c r="P11">
-        <v>0.08342551002880867</v>
+        <v>0.8437478174991718</v>
       </c>
       <c r="Q11">
-        <v>1.08596447100773</v>
+        <v>14.65439317121666</v>
       </c>
       <c r="R11">
-        <v>1.08596447100773</v>
+        <v>131.88953854095</v>
       </c>
       <c r="S11">
-        <v>0.02442356898703327</v>
+        <v>0.2611130587229706</v>
       </c>
       <c r="T11">
-        <v>0.02442356898703327</v>
+        <v>0.2776016477798262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.19328185046771</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H12">
-        <v>5.19328185046771</v>
+        <v>19.459838</v>
       </c>
       <c r="I12">
-        <v>0.2927590011568317</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J12">
-        <v>0.2927590011568317</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.07652103195565</v>
+        <v>0.009148333333333333</v>
       </c>
       <c r="N12">
-        <v>2.07652103195565</v>
+        <v>0.027445</v>
       </c>
       <c r="O12">
-        <v>0.8284408032393844</v>
+        <v>0.003322243451869656</v>
       </c>
       <c r="P12">
-        <v>0.8284408032393844</v>
+        <v>0.00341668364945386</v>
       </c>
       <c r="Q12">
-        <v>10.78395898736976</v>
+        <v>0.05934169487888888</v>
       </c>
       <c r="R12">
-        <v>10.78395898736976</v>
+        <v>0.53407525391</v>
       </c>
       <c r="S12">
-        <v>0.2425335020739255</v>
+        <v>0.001057354697570563</v>
       </c>
       <c r="T12">
-        <v>0.2425335020739255</v>
+        <v>0.001124123809697099</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.19328185046771</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H13">
-        <v>5.19328185046771</v>
+        <v>19.459838</v>
       </c>
       <c r="I13">
-        <v>0.2927590011568317</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J13">
-        <v>0.2927590011568317</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.220910719760269</v>
+        <v>0.228341</v>
       </c>
       <c r="N13">
-        <v>0.220910719760269</v>
+        <v>0.456682</v>
       </c>
       <c r="O13">
-        <v>0.08813368673180696</v>
+        <v>0.08292268814465686</v>
       </c>
       <c r="P13">
-        <v>0.08813368673180696</v>
+        <v>0.05685326734923985</v>
       </c>
       <c r="Q13">
-        <v>1.147251631504764</v>
+        <v>1.481159622919333</v>
       </c>
       <c r="R13">
-        <v>1.147251631504764</v>
+        <v>8.886957737515999</v>
       </c>
       <c r="S13">
-        <v>0.02580193009587291</v>
+        <v>0.02639141144084094</v>
       </c>
       <c r="T13">
-        <v>0.02580193009587291</v>
+        <v>0.01870530550774606</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.94210131449623</v>
+        <v>5.765308999999999</v>
       </c>
       <c r="H14">
-        <v>1.94210131449623</v>
+        <v>17.295927</v>
       </c>
       <c r="I14">
-        <v>0.109481375621098</v>
+        <v>0.2828745447897899</v>
       </c>
       <c r="J14">
-        <v>0.109481375621098</v>
+        <v>0.292424664487945</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.209109480724588</v>
+        <v>0.256997</v>
       </c>
       <c r="N14">
-        <v>0.209109480724588</v>
+        <v>0.770991</v>
       </c>
       <c r="O14">
-        <v>0.08342551002880867</v>
+        <v>0.09332919661870788</v>
       </c>
       <c r="P14">
-        <v>0.08342551002880867</v>
+        <v>0.09598223150213447</v>
       </c>
       <c r="Q14">
-        <v>0.4061117973888464</v>
+        <v>1.481667117073</v>
       </c>
       <c r="R14">
-        <v>0.4061117973888464</v>
+        <v>13.335004053657</v>
       </c>
       <c r="S14">
-        <v>0.009133539599845678</v>
+        <v>0.02640045400911379</v>
       </c>
       <c r="T14">
-        <v>0.009133539599845678</v>
+        <v>0.02806757184381594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.94210131449623</v>
+        <v>5.765308999999999</v>
       </c>
       <c r="H15">
-        <v>1.94210131449623</v>
+        <v>17.295927</v>
       </c>
       <c r="I15">
-        <v>0.109481375621098</v>
+        <v>0.2828745447897899</v>
       </c>
       <c r="J15">
-        <v>0.109481375621098</v>
+        <v>0.292424664487945</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.07652103195565</v>
+        <v>2.259175</v>
       </c>
       <c r="N15">
-        <v>2.07652103195565</v>
+        <v>6.777525</v>
       </c>
       <c r="O15">
-        <v>0.8284408032393844</v>
+        <v>0.8204258717847656</v>
       </c>
       <c r="P15">
-        <v>0.8284408032393844</v>
+        <v>0.8437478174991718</v>
       </c>
       <c r="Q15">
-        <v>4.032814225740136</v>
+        <v>13.024841960075</v>
       </c>
       <c r="R15">
-        <v>4.032814225740136</v>
+        <v>117.223577640675</v>
       </c>
       <c r="S15">
-        <v>0.09069883875929516</v>
+        <v>0.232077595014882</v>
       </c>
       <c r="T15">
-        <v>0.09069883875929516</v>
+        <v>0.2467326724446312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.765308999999999</v>
+      </c>
+      <c r="H16">
+        <v>17.295927</v>
+      </c>
+      <c r="I16">
+        <v>0.2828745447897899</v>
+      </c>
+      <c r="J16">
+        <v>0.292424664487945</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.009148333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.027445</v>
+      </c>
+      <c r="O16">
+        <v>0.003322243451869656</v>
+      </c>
+      <c r="P16">
+        <v>0.00341668364945386</v>
+      </c>
+      <c r="Q16">
+        <v>0.05274296850166666</v>
+      </c>
+      <c r="R16">
+        <v>0.474686716515</v>
+      </c>
+      <c r="S16">
+        <v>0.000939778104128489</v>
+      </c>
+      <c r="T16">
+        <v>0.0009991225698529923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.765308999999999</v>
+      </c>
+      <c r="H17">
+        <v>17.295927</v>
+      </c>
+      <c r="I17">
+        <v>0.2828745447897899</v>
+      </c>
+      <c r="J17">
+        <v>0.292424664487945</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.228341</v>
+      </c>
+      <c r="N17">
+        <v>0.456682</v>
+      </c>
+      <c r="O17">
+        <v>0.08292268814465686</v>
+      </c>
+      <c r="P17">
+        <v>0.05685326734923985</v>
+      </c>
+      <c r="Q17">
+        <v>1.316456422369</v>
+      </c>
+      <c r="R17">
+        <v>7.898738534214</v>
+      </c>
+      <c r="S17">
+        <v>0.02345671766166551</v>
+      </c>
+      <c r="T17">
+        <v>0.0166252976296449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.94210131449623</v>
-      </c>
-      <c r="H16">
-        <v>1.94210131449623</v>
-      </c>
-      <c r="I16">
-        <v>0.109481375621098</v>
-      </c>
-      <c r="J16">
-        <v>0.109481375621098</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.220910719760269</v>
-      </c>
-      <c r="N16">
-        <v>0.220910719760269</v>
-      </c>
-      <c r="O16">
-        <v>0.08813368673180696</v>
-      </c>
-      <c r="P16">
-        <v>0.08813368673180696</v>
-      </c>
-      <c r="Q16">
-        <v>0.4290309992327267</v>
-      </c>
-      <c r="R16">
-        <v>0.4290309992327267</v>
-      </c>
-      <c r="S16">
-        <v>0.009648997261957136</v>
-      </c>
-      <c r="T16">
-        <v>0.009648997261957136</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.996847</v>
+      </c>
+      <c r="H18">
+        <v>3.993694</v>
+      </c>
+      <c r="I18">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J18">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.256997</v>
+      </c>
+      <c r="N18">
+        <v>0.770991</v>
+      </c>
+      <c r="O18">
+        <v>0.09332919661870788</v>
+      </c>
+      <c r="P18">
+        <v>0.09598223150213447</v>
+      </c>
+      <c r="Q18">
+        <v>0.513183688459</v>
+      </c>
+      <c r="R18">
+        <v>3.079102130754</v>
+      </c>
+      <c r="S18">
+        <v>0.009143944823553575</v>
+      </c>
+      <c r="T18">
+        <v>0.006480906936483753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.996847</v>
+      </c>
+      <c r="H19">
+        <v>3.993694</v>
+      </c>
+      <c r="I19">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J19">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.259175</v>
+      </c>
+      <c r="N19">
+        <v>6.777525</v>
+      </c>
+      <c r="O19">
+        <v>0.8204258717847656</v>
+      </c>
+      <c r="P19">
+        <v>0.8437478174991718</v>
+      </c>
+      <c r="Q19">
+        <v>4.511226821225</v>
+      </c>
+      <c r="R19">
+        <v>27.06736092735</v>
+      </c>
+      <c r="S19">
+        <v>0.08038137233801038</v>
+      </c>
+      <c r="T19">
+        <v>0.05697149355140599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.996847</v>
+      </c>
+      <c r="H20">
+        <v>3.993694</v>
+      </c>
+      <c r="I20">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J20">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.009148333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.027445</v>
+      </c>
+      <c r="O20">
+        <v>0.003322243451869656</v>
+      </c>
+      <c r="P20">
+        <v>0.00341668364945386</v>
+      </c>
+      <c r="Q20">
+        <v>0.01826782197166667</v>
+      </c>
+      <c r="R20">
+        <v>0.10960693183</v>
+      </c>
+      <c r="S20">
+        <v>0.0003254973996874515</v>
+      </c>
+      <c r="T20">
+        <v>0.0002307011247495712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.996847</v>
+      </c>
+      <c r="H21">
+        <v>3.993694</v>
+      </c>
+      <c r="I21">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J21">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.228341</v>
+      </c>
+      <c r="N21">
+        <v>0.456682</v>
+      </c>
+      <c r="O21">
+        <v>0.08292268814465686</v>
+      </c>
+      <c r="P21">
+        <v>0.05685326734923985</v>
+      </c>
+      <c r="Q21">
+        <v>0.455962040827</v>
+      </c>
+      <c r="R21">
+        <v>1.823848163308</v>
+      </c>
+      <c r="S21">
+        <v>0.008124365284244749</v>
+      </c>
+      <c r="T21">
+        <v>0.003838843179190514</v>
       </c>
     </row>
   </sheetData>
